--- a/network2_edge_input.xlsx
+++ b/network2_edge_input.xlsx
@@ -383,7 +383,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,7 +404,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.05</v>
+        <v>8.5699999999999998E-2</v>
       </c>
       <c r="C2">
         <v>0.16</v>
@@ -415,10 +415,10 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>8.5699999999999998E-2</v>
+        <v>0.11070000000000001</v>
       </c>
       <c r="C3">
-        <v>0.125</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -426,10 +426,10 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>8.5699999999999998E-2</v>
+        <v>7.3200000000000001E-2</v>
       </c>
       <c r="C4">
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -448,10 +448,10 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>8.5699999999999998E-2</v>
+        <v>7.3200000000000001E-2</v>
       </c>
       <c r="C6">
-        <v>0.125</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -459,10 +459,10 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>8.5699999999999998E-2</v>
+        <v>7.3200000000000001E-2</v>
       </c>
       <c r="C7">
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -481,10 +481,10 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>8.5699999999999998E-2</v>
+        <v>0.11070000000000001</v>
       </c>
       <c r="C9">
-        <v>0.125</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">

--- a/network2_edge_input.xlsx
+++ b/network2_edge_input.xlsx
@@ -383,7 +383,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,10 +415,10 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0.11070000000000001</v>
+        <v>8.5699999999999998E-2</v>
       </c>
       <c r="C3">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -426,10 +426,10 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>7.3200000000000001E-2</v>
+        <v>5.74E-2</v>
       </c>
       <c r="C4">
-        <v>0.14000000000000001</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -448,10 +448,10 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>7.3200000000000001E-2</v>
+        <v>5.74E-2</v>
       </c>
       <c r="C6">
-        <v>0.14000000000000001</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -459,10 +459,10 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>7.3200000000000001E-2</v>
+        <v>5.74E-2</v>
       </c>
       <c r="C7">
-        <v>0.14000000000000001</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -481,10 +481,10 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.11070000000000001</v>
+        <v>8.5699999999999998E-2</v>
       </c>
       <c r="C9">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
